--- a/biology/Botanique/Kleinia_neriifolia/Kleinia_neriifolia.xlsx
+++ b/biology/Botanique/Kleinia_neriifolia/Kleinia_neriifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Verode, Kleinia neriifolia, est une espèce de plantes à fleurs de la famille des Asteraceae, endémique aux îles Canaries.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cacalia kleinia L.
 Cacalia terminalis Salisb.
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Verode est endémique aux îles Canaries, où il est relativement fréquent[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Verode est endémique aux îles Canaries, où il est relativement fréquent.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste haut de 1,5 m de haut avec des tiges charnues , segmentées et cassantes.
-Feuilles vert vif charnues, elliptiques, lancéolées. Ses feuilles caduques laissent des cicatrices sur la tige[2].
+Feuilles vert vif charnues, elliptiques, lancéolées. Ses feuilles caduques laissent des cicatrices sur la tige.
 			Kleinia neriifolia poussant au milieu d'une Euphorbia balsamifera
 			Kleinia neriifolia en avril dans des champs vers Mozaga à Lanzarote
 			Kleinia neriifolia en novembre à Fuerteventura
